--- a/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,7 +552,8 @@
     <t>The canonical URL pointing to another FHIR-defined SubscriptionTopic that is adhered to in whole or in part by this SubscriptionTopic.</t>
   </si>
   <si>
-    <t>SubscriptionTopics may be refinements of more generic topics. Element `SubscriptionTopic.derivedFrom` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>SubscriptionTopics may be refinements of more generic topics. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.derivedFrom` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `SubscriptionTopic.derivedFrom` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:derivedFrom.id</t>

--- a/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -350,7 +350,8 @@
 When this is a direct implementation from another IG or registered topic (with no additional filters, etc., so not derived), then this url is the unique url for this topic as defined by the IG.</t>
   </si>
   <si>
-    <t>Allows the subscription topic to be referenced by a single globally unique identifier. Element `SubscriptionTopic.url` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Allows the subscription topic to be referenced by a single globally unique identifier. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.
+Element `SubscriptionTopic.url` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:url.id</t>
@@ -431,7 +432,8 @@
     <t>There may be multiple different instances of a subscription topic that have the same identifier but different versions.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.version` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
+Element `SubscriptionTopic.version` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:version.id</t>
@@ -461,7 +463,8 @@
     <t>If set as a string, this is a FHIRPath expression that has two additional context variables passed in - %version1 and %version2 and will return a negative number if version1 is newer, a positive number if version2 and a 0 if the version ordering can't be successfully be determined.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.versionAlgorithm[x]` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `SubscriptionTopic.versionAlgorithm[x]` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.id</t>
@@ -495,7 +498,8 @@
     <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
   </si>
   <si>
-    <t>Support human navigation and code generation. Element `SubscriptionTopic.name` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Support human navigation and code generation. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
+Element `SubscriptionTopic.name` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -525,7 +529,8 @@
     <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.title` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `SubscriptionTopic.title` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -568,7 +573,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic)
 </t>
   </si>
   <si>
@@ -589,7 +594,8 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.status` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
+Element `SubscriptionTopic.status` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -608,15 +614,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -632,7 +629,8 @@
     <t>Allows filtering of SubscriptionTopic that are appropriate for use vs. not.</t>
   </si>
   <si>
-    <t>Enables experimental content to be developed following the same life-cycle as a production-level SubscriptionTopic would. Element `SubscriptionTopic.experimental` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Enables experimental content to be developed following the same life-cycle as a production-level SubscriptionTopic would. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.
+Element `SubscriptionTopic.experimental` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:experimental.id</t>
@@ -666,7 +664,8 @@
     <t>See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.date` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.
+Element `SubscriptionTopic.date` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:date.id</t>
@@ -697,7 +696,8 @@
     <t>Helps establish the "authority/credibility" of the SubscriptionTopic.  May also allow for contact.</t>
   </si>
   <si>
-    <t>Usually an organization, but may be an individual. The publisher (or steward) of the SubscriptionTopic is the organization or individual primarily responsible for the maintenance and upkeep of the Topic. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the Topic. This item SHOULD be populated unless the information is available from context. Element `SubscriptionTopic.publisher` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Usually an organization, but may be an individual. The publisher (or steward) of the SubscriptionTopic is the organization or individual primarily responsible for the maintenance and upkeep of the Topic. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the Topic. This item SHOULD be populated unless the information is available from context. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.
+Element `SubscriptionTopic.publisher` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:publisher.id</t>
@@ -728,7 +728,8 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.contact` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.
+Element `SubscriptionTopic.contact` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contact.id</t>
@@ -762,7 +763,8 @@
     <t>This description can be used to capture details such as comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the module as conveyed in the text field of the resource itself. This item SHOULD be populated unless the information is available from context.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `SubscriptionTopic.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -796,7 +798,8 @@
     <t>When multiple usageContexts are specified, there is no expectation for whether all or any of the contexts apply.</t>
   </si>
   <si>
-    <t>Assist in searching for appropriate content. Element `SubscriptionTopic.useContext` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Assist in searching for appropriate content. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.
+Element `SubscriptionTopic.useContext` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -849,15 +852,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:purpose</t>
   </si>
   <si>
@@ -873,7 +867,8 @@
     <t>This element does not describe the usage of the Topic.  Rather it is for traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this Topic.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.purpose` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
+Element `SubscriptionTopic.purpose` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:purpose.id</t>
@@ -903,7 +898,8 @@
     <t>...</t>
   </si>
   <si>
-    <t>Consumers of the TSubscriptionTopicopic must be able to determine any legal restrictions on the use of the artifact and/or its content. Element `SubscriptionTopic.copyright` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Consumers of the TSubscriptionTopicopic must be able to determine any legal restrictions on the use of the artifact and/or its content. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `SubscriptionTopic.copyright` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:copyright.id</t>
@@ -933,7 +929,8 @@
     <t>The (c) symbol should NOT be included in this string. It will be added by software when rendering the notation. Full details about licensing, restrictions, warrantees, etc. goes in the more general 'copyright' element.</t>
   </si>
   <si>
-    <t>Defines the content expected to be rendered in all representations of the artifact. Element `SubscriptionTopic.copyrightLabel` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Defines the content expected to be rendered in all representations of the artifact. Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `SubscriptionTopic.copyrightLabel` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:copyrightLabel.id</t>
@@ -963,7 +960,8 @@
     <t>The date may be more recent than the approval date because of minor changes / editorial corrections.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.approvalDate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `SubscriptionTopic.approvalDate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:approvalDate.id</t>
@@ -997,7 +995,8 @@
     <t>If specified, this is usually after the approval date.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.lastReviewDate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `SubscriptionTopic.lastReviewDate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:lastReviewDate.id</t>
@@ -1027,7 +1026,8 @@
     <t>The effective period for a SubscriptionTopic  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.effectivePeriod` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubscriptionTopic.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `SubscriptionTopic.effectivePeriod` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -1163,10 +1163,13 @@
     <t>Extension.extension:resourceTrigger.extension:supportedInteraction.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>FHIR RESTful interaction used to filter a resource-based SubscriptionTopic trigger.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interaction-trigger-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-trigger-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria</t>
@@ -1265,7 +1268,7 @@
     <t>Behavior a server can exhibit when a criteria state does not exist (e.g., state prior to a create or after a delete).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-subscriptiontopic-cr-behavior-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscriptiontopic-cr-behavior-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:current</t>
@@ -1479,15 +1482,6 @@
     <t>Extension.extension:eventTrigger.extension:event.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>FHIR Value set/code system definition for HL7 V2 table 0003 (EVENT TYPE CODE).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v2-0003-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:eventTrigger.extension:resource</t>
   </si>
   <si>
@@ -1680,12 +1674,6 @@
     <t>Extension.extension:canFilterBy.extension:comparator.value[x]</t>
   </si>
   <si>
-    <t>Search Comparator Codes supported in this filter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-comparator-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:canFilterBy.extension:modifier</t>
   </si>
   <si>
@@ -1720,7 +1708,7 @@
     <t>Search Modifier Codes supported in this filter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-modifier-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.url</t>
@@ -2188,7 +2176,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="89.47265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.46484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6266,13 +6254,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6310,13 +6298,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6341,16 +6329,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6419,7 +6407,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6522,7 +6510,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6627,7 +6615,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6670,7 +6658,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6732,7 +6720,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6758,16 +6746,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6837,13 +6825,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6868,16 +6856,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6946,7 +6934,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -7049,7 +7037,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -7154,7 +7142,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -7197,7 +7185,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7259,7 +7247,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7285,16 +7273,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7364,13 +7352,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7395,14 +7383,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7471,7 +7459,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7574,7 +7562,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7679,7 +7667,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7722,7 +7710,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7784,7 +7772,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7813,10 +7801,10 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7887,13 +7875,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7918,16 +7906,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7996,7 +7984,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -8099,7 +8087,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -8204,7 +8192,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -8247,7 +8235,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8309,7 +8297,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8335,16 +8323,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8414,13 +8402,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8445,16 +8433,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8511,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8626,7 +8614,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8731,7 +8719,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8774,7 +8762,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8836,7 +8824,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8862,16 +8850,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8941,13 +8929,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8972,16 +8960,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9050,7 +9038,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -9153,7 +9141,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -9258,7 +9246,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -9301,7 +9289,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9363,7 +9351,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -9389,16 +9377,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9468,13 +9456,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9499,16 +9487,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9577,7 +9565,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9680,7 +9668,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9785,7 +9773,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9828,7 +9816,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9890,7 +9878,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9916,16 +9904,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9951,13 +9939,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -9995,13 +9983,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10026,16 +10014,16 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10104,7 +10092,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -10207,7 +10195,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -10312,7 +10300,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10355,7 +10343,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10417,7 +10405,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10443,16 +10431,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10522,13 +10510,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10553,16 +10541,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10631,7 +10619,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10734,7 +10722,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10839,7 +10827,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10882,7 +10870,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10944,7 +10932,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10970,16 +10958,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11049,13 +11037,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11080,16 +11068,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11158,7 +11146,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11261,7 +11249,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11366,7 +11354,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11409,7 +11397,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11471,7 +11459,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11500,13 +11488,13 @@
         <v>87</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11576,13 +11564,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11607,16 +11595,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11685,7 +11673,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11788,7 +11776,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11893,7 +11881,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11936,7 +11924,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11998,7 +11986,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -12024,16 +12012,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12103,13 +12091,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12134,16 +12122,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12212,7 +12200,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12315,7 +12303,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12420,7 +12408,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12463,7 +12451,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12525,7 +12513,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12551,16 +12539,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12630,13 +12618,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12661,16 +12649,16 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12739,7 +12727,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12842,7 +12830,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12947,7 +12935,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12990,7 +12978,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13052,7 +13040,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -13078,16 +13066,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13157,13 +13145,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13188,14 +13176,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13264,7 +13252,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13367,7 +13355,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13470,13 +13458,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13501,16 +13489,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13579,10 +13567,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13682,10 +13670,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13787,10 +13775,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13830,7 +13818,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13892,10 +13880,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13918,16 +13906,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13997,13 +13985,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14028,14 +14016,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14104,10 +14092,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14207,10 +14195,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14312,10 +14300,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14355,7 +14343,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14417,10 +14405,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14446,10 +14434,10 @@
         <v>116</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14520,13 +14508,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14551,14 +14539,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14627,10 +14615,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14730,10 +14718,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14835,10 +14823,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14878,7 +14866,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14940,10 +14928,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14969,10 +14957,10 @@
         <v>187</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14999,13 +14987,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -15043,13 +15031,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15074,14 +15062,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15150,10 +15138,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15253,10 +15241,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15356,13 +15344,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15387,16 +15375,16 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15465,10 +15453,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15568,10 +15556,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15673,10 +15661,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15716,7 +15704,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15778,10 +15766,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15807,13 +15795,13 @@
         <v>87</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -15883,13 +15871,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15914,14 +15902,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15990,10 +15978,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16093,10 +16081,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16198,10 +16186,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16241,7 +16229,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16303,10 +16291,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16332,10 +16320,10 @@
         <v>187</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16362,13 +16350,13 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -16406,13 +16394,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16437,16 +16425,16 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16515,10 +16503,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16618,10 +16606,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16723,10 +16711,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16766,7 +16754,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16828,10 +16816,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16857,13 +16845,13 @@
         <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -16933,13 +16921,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16964,14 +16952,14 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17040,10 +17028,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17143,10 +17131,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17248,10 +17236,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17291,7 +17279,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17353,10 +17341,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17382,10 +17370,10 @@
         <v>187</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17412,13 +17400,13 @@
         <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -17456,13 +17444,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17487,16 +17475,16 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17565,10 +17553,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17668,10 +17656,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17773,10 +17761,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17816,7 +17804,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17878,10 +17866,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17904,16 +17892,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17983,10 +17971,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18026,7 +18014,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18088,10 +18076,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18114,13 +18102,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18191,13 +18179,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18222,16 +18210,16 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18300,10 +18288,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18403,10 +18391,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18508,10 +18496,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18551,7 +18539,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18613,10 +18601,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18642,13 +18630,13 @@
         <v>87</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18718,7 +18706,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>115</v>
@@ -18761,7 +18749,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18823,7 +18811,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>123</v>
@@ -18849,13 +18837,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18926,13 +18914,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18957,14 +18945,14 @@
         <v>94</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -19033,7 +19021,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>107</v>
@@ -19136,7 +19124,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>109</v>
@@ -19239,13 +19227,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19270,16 +19258,16 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19348,10 +19336,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19451,10 +19439,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19556,10 +19544,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19599,7 +19587,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19661,10 +19649,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19687,16 +19675,16 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19766,13 +19754,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19797,14 +19785,14 @@
         <v>94</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19873,10 +19861,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19976,10 +19964,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20081,10 +20069,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20124,7 +20112,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20186,10 +20174,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20212,13 +20200,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20245,13 +20233,13 @@
         <v>77</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>77</v>
@@ -20289,13 +20277,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20320,14 +20308,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20396,10 +20384,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20499,10 +20487,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20604,10 +20592,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20647,7 +20635,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20709,10 +20697,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20738,10 +20726,10 @@
         <v>116</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20812,7 +20800,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>115</v>
@@ -20855,7 +20843,7 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>77</v>
@@ -20917,7 +20905,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>123</v>
@@ -20943,13 +20931,13 @@
         <v>77</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -21020,13 +21008,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>77</v>
@@ -21051,14 +21039,14 @@
         <v>94</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>77</v>
@@ -21127,7 +21115,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>107</v>
@@ -21230,7 +21218,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>109</v>
@@ -21333,13 +21321,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21364,14 +21352,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21440,10 +21428,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21543,10 +21531,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21648,10 +21636,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21691,7 +21679,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21753,10 +21741,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21779,13 +21767,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21856,13 +21844,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21887,16 +21875,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21965,10 +21953,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22068,10 +22056,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22173,10 +22161,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22216,7 +22204,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22278,10 +22266,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22307,13 +22295,13 @@
         <v>116</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22383,13 +22371,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22414,16 +22402,16 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22492,10 +22480,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22595,10 +22583,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22700,10 +22688,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22743,7 +22731,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22805,10 +22793,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22834,13 +22822,13 @@
         <v>87</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22910,13 +22898,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -22941,16 +22929,16 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23019,10 +23007,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23122,10 +23110,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23227,10 +23215,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23270,7 +23258,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23332,10 +23320,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23361,13 +23349,13 @@
         <v>116</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -23437,13 +23425,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23468,16 +23456,16 @@
         <v>94</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23546,10 +23534,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23649,10 +23637,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23754,10 +23742,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23797,7 +23785,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23859,10 +23847,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23888,13 +23876,13 @@
         <v>187</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -23920,13 +23908,13 @@
         <v>77</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>536</v>
+        <v>77</v>
       </c>
       <c r="Z207" t="s" s="2">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>77</v>
@@ -23964,13 +23952,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -23995,16 +23983,16 @@
         <v>94</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24073,10 +24061,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24176,10 +24164,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24281,10 +24269,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24324,7 +24312,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24386,10 +24374,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24415,13 +24403,13 @@
         <v>187</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -24447,13 +24435,13 @@
         <v>77</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>77</v>
@@ -24491,7 +24479,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>115</v>
@@ -24534,7 +24522,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24596,7 +24584,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>123</v>
@@ -24622,13 +24610,13 @@
         <v>77</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24699,13 +24687,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24730,14 +24718,14 @@
         <v>94</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -24806,7 +24794,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>107</v>
@@ -24909,7 +24897,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>109</v>
@@ -25012,13 +25000,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25043,16 +25031,16 @@
         <v>94</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25121,10 +25109,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25224,10 +25212,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25329,10 +25317,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25372,7 +25360,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25434,10 +25422,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25463,13 +25451,13 @@
         <v>116</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -25539,13 +25527,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -25570,14 +25558,14 @@
         <v>94</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -25646,10 +25634,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25749,10 +25737,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25854,10 +25842,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25897,7 +25885,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -25959,10 +25947,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -25988,10 +25976,10 @@
         <v>87</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -26062,13 +26050,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>77</v>
@@ -26093,14 +26081,14 @@
         <v>94</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>77</v>
@@ -26169,10 +26157,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26272,10 +26260,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26377,10 +26365,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26420,7 +26408,7 @@
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="S231" t="s" s="2">
         <v>77</v>
@@ -26482,10 +26470,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26511,10 +26499,10 @@
         <v>87</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -26585,7 +26573,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>115</v>
@@ -26628,7 +26616,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26690,7 +26678,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>123</v>
@@ -26716,13 +26704,13 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26924,13 +26912,13 @@
         <v>77</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>

--- a/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
+++ b/StructureDefinition-ext-R5-SubscriptionTopic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7837" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -483,6 +483,12 @@
 Coding</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-algorithm-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -573,7 +579,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -614,6 +620,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -1079,8 +1094,7 @@
     <t>Implementation of particular subscription topics might not use a computable definition and instead base their design on the definition.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.description` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:description.id</t>
@@ -1119,8 +1133,7 @@
     <t>URL of the Resource that is the type used in this resource trigger.  Relative URLs are relative to the StructureDefinition root of the implemented FHIR version (e.g., http://hl7.org/fhir/StructureDefinition). For example, "Patient" maps to http://hl7.org/fhir/StructureDefinition/Patient.  For more information, see [ElementDefinition.type.code](https://hl7.org/fhir/elementdefinition-definition.html#ElementDefinition.type.code).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.resource` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:resource.id</t>
@@ -1135,6 +1148,12 @@
     <t>Extension.extension:resourceTrigger.extension:resource.value[x]</t>
   </si>
   <si>
+    <t>A type of resource, or a Reference (from all versions)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-types-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:resourceTrigger.extension:supportedInteraction</t>
   </si>
   <si>
@@ -1147,8 +1166,7 @@
     <t>The FHIR RESTful interaction which can be used to trigger a notification for the SubscriptionTopic. Multiple values are considered OR joined (e.g., CREATE or UPDATE). If not present, all supported interactions are assumed.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.supportedInteraction` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.supportedInteraction` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.supportedInteraction` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:supportedInteraction.id</t>
@@ -1163,13 +1181,10 @@
     <t>Extension.extension:resourceTrigger.extension:supportedInteraction.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>FHIR RESTful interaction used to filter a resource-based SubscriptionTopic trigger.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-trigger-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-trigger-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria</t>
@@ -1184,8 +1199,7 @@
     <t>The FHIR query based rules that the server should use to determine when to trigger a notification for this subscription topic.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.id</t>
@@ -1209,8 +1223,7 @@
     <t>The rules are search criteria (without the [base] part). Like Bundle.entry.request.url, it has no leading slash character (`/`).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.previous` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger.queryCriteria` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria.previous` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.previous` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:previous.id</t>
@@ -1249,8 +1262,7 @@
     <t>For `create` interactions, should the `previous` criteria count as an automatic pass or an automatic fail. If not present, the testing behavior during `create` interactions is unspecified (server discretion).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForCreate` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger.queryCriteria` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForCreate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForCreate` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:resultForCreate.id</t>
@@ -1268,7 +1280,7 @@
     <t>Behavior a server can exhibit when a criteria state does not exist (e.g., state prior to a create or after a delete).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscriptiontopic-cr-behavior-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscriptiontopic-cr-behavior-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:current</t>
@@ -1283,8 +1295,7 @@
     <t>The FHIR query based rules are applied to the current resource state (e.g., state after an update).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.current` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger.queryCriteria` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria.current` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.current` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:current.id</t>
@@ -1308,8 +1319,7 @@
     <t>For 'delete' interactions, should the 'current' query criteria count as an automatic pass or an automatic fail. If not present, the testing behavior during `delete` interactions is unspecified (server discretion).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForDelete` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger.queryCriteria` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForDelete` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.resultForDelete` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:resultForDelete.id</t>
@@ -1339,8 +1349,7 @@
     <t>Please note the interaction between this element and the `resultForCreate`/`resultForDelete` elements during `create` and `delete` interactions.  For example, if `resultForCreate` is set to `test-passes`, setting `requireBoth` to `false` means that every `create` will trigger a notification while setting `requireBoth` to `true` will result in notifications if the `current` test passes.  Similarly, if `resultForCreate` is set to `test-fails`, setting `requireBoth` to `true` means that no `create` will be able to generate a notification while setting `requireBoth` to `false` will result in notifications if the `current` test passes.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.requireBoth` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger.queryCriteria` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.queryCriteria.requireBoth` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.queryCriteria.requireBoth` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:queryCriteria.extension:requireBoth.id</t>
@@ -1386,8 +1395,7 @@
     <t>FHIRPath expression with %previous and %current vars.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.resourceTrigger.fhirPathCriteria` is part of an existing definition because parent element `SubscriptionTopic.resourceTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.resourceTrigger.fhirPathCriteria` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.resourceTrigger.fhirPathCriteria` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:resourceTrigger.extension:fhirPathCriteria.id</t>
@@ -1438,8 +1446,7 @@
     <t>The human readable description of an event to trigger a notification for the SubscriptionTopic - for example, "Patient Admission, as defined in HL7v2 via message ADT^A01". Multiple values are considered OR joined (e.g., matching any single event listed).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.eventTrigger.description` is part of an existing definition because parent element `SubscriptionTopic.eventTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.eventTrigger.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.eventTrigger.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:eventTrigger.extension:description.id</t>
@@ -1466,8 +1473,7 @@
     <t>A well-defined event which can be used to trigger notifications from the SubscriptionTopic.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.eventTrigger.event` is part of an existing definition because parent element `SubscriptionTopic.eventTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.eventTrigger.event` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.eventTrigger.event` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:eventTrigger.extension:event.id</t>
@@ -1482,14 +1488,22 @@
     <t>Extension.extension:eventTrigger.extension:event.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>FHIR Value set/code system definition for HL7 V2 table 0003 (EVENT TYPE CODE).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003|2.9</t>
+  </si>
+  <si>
     <t>Extension.extension:eventTrigger.extension:resource</t>
   </si>
   <si>
     <t>URL of the Resource that is the focus type used in this event trigger.  Relative URLs are relative to the StructureDefinition root of the implemented FHIR version (e.g., http://hl7.org/fhir/StructureDefinition). For example, "Patient" maps to http://hl7.org/fhir/StructureDefinition/Patient.  For more information, see [ElementDefinition.type.code](https://hl7.org/fhir/elementdefinition-definition.html#ElementDefinition.type.code).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.eventTrigger.resource` is part of an existing definition because parent element `SubscriptionTopic.eventTrigger` requires a cross-version extension.
-Element `SubscriptionTopic.eventTrigger.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.eventTrigger.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:eventTrigger.extension:resource.id</t>
@@ -1540,8 +1554,7 @@
     <t>Description of how this filtering parameter is intended to be used.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.description` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.description` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:description.id</t>
@@ -1568,8 +1581,7 @@
     <t>URL of the Resource that is the type used in this filter. Relative URLs are relative to the StructureDefinition root of the implemented FHIR version (e.g., http://hl7.org/fhir/StructureDefinition). For example, "Patient" maps to http://hl7.org/fhir/StructureDefinition/Patient. For more information, see [ElementDefinition.type.code](https://hl7.org/fhir/elementdefinition-definition.html#ElementDefinition.type.code).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.resource` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:resource.id</t>
@@ -1599,8 +1611,7 @@
     <t>Chained parameters are allowed (like "patient.gender") - but can not use colons or modifiers.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.filterParameter` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.filterParameter` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.filterParameter` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:filterParameter.id</t>
@@ -1627,8 +1638,7 @@
     <t>Either the canonical URL to a search parameter (like "http://hl7.org/fhir/SearchParameter/encounter-patient") or the officially-defined URI for a shared filter concept (like "http://example.org/concepts/shared-common-event").</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.filterDefinition` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.filterDefinition` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.filterDefinition` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:filterDefinition.id</t>
@@ -1658,8 +1668,7 @@
     <t>If no comparators are listed, clients should not expect servers to support any comparators.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.comparator` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.comparator` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.comparator` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:comparator.id</t>
@@ -1674,6 +1683,12 @@
     <t>Extension.extension:canFilterBy.extension:comparator.value[x]</t>
   </si>
   <si>
+    <t>Search Comparator Codes supported in this filter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/search-comparator|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:canFilterBy.extension:modifier</t>
   </si>
   <si>
@@ -1689,8 +1704,7 @@
     <t>If no modifiers are listed, clients should not expect servers to support any modifiers.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.canFilterBy.modifier` is part of an existing definition because parent element `SubscriptionTopic.canFilterBy` requires a cross-version extension.
-Element `SubscriptionTopic.canFilterBy.modifier` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.canFilterBy.modifier` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.extension:modifier.id</t>
@@ -1708,7 +1722,7 @@
     <t>Search Modifier Codes supported in this filter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:canFilterBy.url</t>
@@ -1750,8 +1764,7 @@
     <t>URL of the Resource that is the type used in this shape. Relative URLs are relative to the StructureDefinition root of the implemented FHIR version (e.g., http://hl7.org/fhir/StructureDefinition). For example, 'Patient' maps to http://hl7.org/fhir/StructureDefinition/Patient. For more information, see [ElementDefinition.type.code](https://hl7.org/fhir/elementdefinition-definition.html#ElementDefinition.type.code).</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.notificationShape.resource` is part of an existing definition because parent element `SubscriptionTopic.notificationShape` requires a cross-version extension.
-Element `SubscriptionTopic.notificationShape.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.notificationShape.resource` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:notificationShape.extension:resource.id</t>
@@ -1778,8 +1791,7 @@
     <t>Search-style _include directives, rooted in the resource for this shape. Servers SHOULD include resources listed here, if they exist and the user is authorized to receive them.  Clients SHOULD be prepared to receive these additional resources, but SHALL function properly without them.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.notificationShape.include` is part of an existing definition because parent element `SubscriptionTopic.notificationShape` requires a cross-version extension.
-Element `SubscriptionTopic.notificationShape.include` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.notificationShape.include` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:notificationShape.extension:include.id</t>
@@ -1806,8 +1818,7 @@
     <t>Search-style _revinclude directives, rooted in the resource for this shape. Servers SHOULD include resources listed here, if they exist and the user is authorized to receive them.  Clients SHOULD be prepared to receive these additional resources, but SHALL function properly without them.</t>
   </si>
   <si>
-    <t>Element `SubscriptionTopic.notificationShape.revInclude` is part of an existing definition because parent element `SubscriptionTopic.notificationShape` requires a cross-version extension.
-Element `SubscriptionTopic.notificationShape.revInclude` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
+    <t>Element `SubscriptionTopic.notificationShape.revInclude` is not mapped to FHIR R4, since FHIR R5 `SubscriptionTopic` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:notificationShape.extension:revInclude.id</t>
@@ -2176,7 +2187,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="89.47265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.97265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4150,13 +4161,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4194,13 +4203,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4225,16 +4234,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4303,7 +4312,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4406,7 +4415,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4511,7 +4520,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4554,7 +4563,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4616,7 +4625,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4645,13 +4654,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4721,13 +4730,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4752,16 +4761,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4830,7 +4839,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4933,7 +4942,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -5038,7 +5047,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -5081,7 +5090,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5143,7 +5152,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -5172,13 +5181,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5248,13 +5257,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5279,14 +5288,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5355,7 +5364,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5458,7 +5467,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5563,7 +5572,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5606,7 +5615,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5668,7 +5677,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5694,13 +5703,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5771,13 +5780,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5802,16 +5811,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5880,7 +5889,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5983,7 +5992,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -6088,7 +6097,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -6131,7 +6140,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6193,7 +6202,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6219,16 +6228,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6254,13 +6263,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6298,13 +6307,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6329,16 +6338,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6407,7 +6416,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6510,7 +6519,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6615,7 +6624,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6658,7 +6667,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6720,7 +6729,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6746,16 +6755,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6825,13 +6834,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6856,16 +6865,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6934,7 +6943,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -7037,7 +7046,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -7142,7 +7151,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -7185,7 +7194,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7247,7 +7256,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7273,16 +7282,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7352,13 +7361,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7383,14 +7392,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7459,7 +7468,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7562,7 +7571,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7667,7 +7676,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7710,7 +7719,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7781,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7801,10 +7810,10 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7875,13 +7884,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7906,16 +7915,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7984,7 +7993,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -8087,7 +8096,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -8192,7 +8201,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -8235,7 +8244,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8297,7 +8306,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8323,16 +8332,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8402,13 +8411,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8433,16 +8442,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8511,7 +8520,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8614,7 +8623,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8719,7 +8728,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8762,7 +8771,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8833,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8850,16 +8859,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8929,13 +8938,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8960,16 +8969,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9038,7 +9047,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -9141,7 +9150,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -9246,7 +9255,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -9289,7 +9298,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9351,7 +9360,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -9377,16 +9386,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9456,13 +9465,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9487,16 +9496,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9565,7 +9574,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9668,7 +9677,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9773,7 +9782,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9816,7 +9825,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9878,7 +9887,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9904,16 +9913,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9983,13 +9992,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10014,16 +10023,16 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10092,7 +10101,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -10195,7 +10204,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -10300,7 +10309,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10343,7 +10352,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10405,7 +10414,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10431,16 +10440,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10510,13 +10519,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10541,16 +10550,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10619,7 +10628,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10722,7 +10731,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10827,7 +10836,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10870,7 +10879,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10932,7 +10941,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10958,16 +10967,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11037,13 +11046,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11068,16 +11077,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11146,7 +11155,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11249,7 +11258,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11354,7 +11363,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11397,7 +11406,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11459,7 +11468,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11488,13 +11497,13 @@
         <v>87</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11564,13 +11573,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11595,16 +11604,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11673,7 +11682,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11776,7 +11785,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11881,7 +11890,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11924,7 +11933,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11986,7 +11995,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -12012,16 +12021,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12091,13 +12100,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12122,16 +12131,16 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12200,7 +12209,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12303,7 +12312,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12408,7 +12417,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12451,7 +12460,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12513,7 +12522,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12539,16 +12548,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12618,13 +12627,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12649,16 +12658,16 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12727,7 +12736,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12830,7 +12839,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12935,7 +12944,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12978,7 +12987,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13040,7 +13049,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -13066,16 +13075,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13145,13 +13154,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13176,14 +13185,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13252,7 +13261,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13355,7 +13364,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13458,13 +13467,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13489,16 +13498,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13567,10 +13576,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13670,10 +13679,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13775,10 +13784,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13818,7 +13827,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13880,10 +13889,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13906,16 +13915,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13985,13 +13994,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14016,14 +14025,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14092,10 +14101,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14195,10 +14204,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14300,10 +14309,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14343,7 +14352,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14405,10 +14414,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14434,10 +14443,10 @@
         <v>116</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14464,13 +14473,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14508,13 +14517,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14539,14 +14548,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14615,10 +14624,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14718,10 +14727,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14823,10 +14832,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14866,7 +14875,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14928,10 +14937,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14954,13 +14963,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14987,13 +14996,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -15031,13 +15040,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15062,14 +15071,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15138,10 +15147,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15241,10 +15250,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15344,13 +15353,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15375,16 +15384,16 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15453,10 +15462,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15556,10 +15565,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15661,10 +15670,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15704,7 +15713,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15766,10 +15775,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15795,13 +15804,13 @@
         <v>87</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -15871,13 +15880,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15902,14 +15911,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15978,10 +15987,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16081,10 +16090,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16186,10 +16195,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16229,7 +16238,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16291,10 +16300,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16317,13 +16326,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16350,13 +16359,13 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -16394,13 +16403,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16425,16 +16434,16 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16503,10 +16512,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16606,10 +16615,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16711,10 +16720,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16754,7 +16763,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16816,10 +16825,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16845,13 +16854,13 @@
         <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -16921,13 +16930,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16952,14 +16961,14 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17028,10 +17037,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17131,10 +17140,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17236,10 +17245,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17279,7 +17288,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17341,10 +17350,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17367,13 +17376,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17400,13 +17409,13 @@
         <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -17444,13 +17453,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17475,16 +17484,16 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17553,10 +17562,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17656,10 +17665,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17761,10 +17770,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17804,7 +17813,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17866,10 +17875,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17892,16 +17901,16 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17971,10 +17980,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18014,7 +18023,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18076,10 +18085,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18102,13 +18111,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18179,13 +18188,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18210,16 +18219,16 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18288,10 +18297,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18391,10 +18400,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18496,10 +18505,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18539,7 +18548,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18601,10 +18610,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18630,13 +18639,13 @@
         <v>87</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18706,7 +18715,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>115</v>
@@ -18749,7 +18758,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18811,7 +18820,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>123</v>
@@ -18837,13 +18846,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18914,13 +18923,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18945,14 +18954,14 @@
         <v>94</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -19021,7 +19030,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>107</v>
@@ -19124,7 +19133,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>109</v>
@@ -19227,13 +19236,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19258,16 +19267,16 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19336,10 +19345,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19439,10 +19448,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19544,10 +19553,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19587,7 +19596,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19649,10 +19658,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19675,16 +19684,16 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19754,13 +19763,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19785,14 +19794,14 @@
         <v>94</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19861,10 +19870,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19964,10 +19973,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20069,10 +20078,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20112,7 +20121,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20174,10 +20183,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20200,13 +20209,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20233,13 +20242,13 @@
         <v>77</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>77</v>
@@ -20277,13 +20286,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20308,14 +20317,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20384,10 +20393,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20487,10 +20496,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20592,10 +20601,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20635,7 +20644,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20697,10 +20706,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20726,10 +20735,10 @@
         <v>116</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20756,13 +20765,13 @@
         <v>77</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>77</v>
@@ -20800,7 +20809,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>115</v>
@@ -20843,7 +20852,7 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>77</v>
@@ -20905,7 +20914,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>123</v>
@@ -20931,13 +20940,13 @@
         <v>77</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -21008,13 +21017,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>77</v>
@@ -21039,14 +21048,14 @@
         <v>94</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>77</v>
@@ -21115,7 +21124,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>107</v>
@@ -21218,7 +21227,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>109</v>
@@ -21321,13 +21330,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21352,14 +21361,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21428,10 +21437,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21531,10 +21540,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21636,10 +21645,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21679,7 +21688,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21741,10 +21750,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21767,13 +21776,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21844,13 +21853,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21875,16 +21884,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21953,10 +21962,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22056,10 +22065,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22161,10 +22170,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22204,7 +22213,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22266,10 +22275,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22295,13 +22304,13 @@
         <v>116</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22327,13 +22336,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -22371,13 +22380,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22402,16 +22411,16 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22480,10 +22489,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22583,10 +22592,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22688,10 +22697,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22731,7 +22740,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22793,10 +22802,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22822,13 +22831,13 @@
         <v>87</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22898,13 +22907,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -22929,16 +22938,16 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M198" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N198" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="O198" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23007,10 +23016,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23110,10 +23119,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23215,10 +23224,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23258,7 +23267,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23320,10 +23329,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23349,13 +23358,13 @@
         <v>116</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M202" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -23425,13 +23434,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23456,16 +23465,16 @@
         <v>94</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23534,10 +23543,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23637,10 +23646,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23742,10 +23751,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23785,7 +23794,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23847,10 +23856,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23873,16 +23882,16 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -23908,13 +23917,13 @@
         <v>77</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="Z207" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>77</v>
@@ -23952,13 +23961,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -23983,16 +23992,16 @@
         <v>94</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24061,10 +24070,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24164,10 +24173,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24269,10 +24278,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24312,7 +24321,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24374,10 +24383,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24400,16 +24409,16 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -24435,13 +24444,13 @@
         <v>77</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>77</v>
@@ -24479,7 +24488,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>115</v>
@@ -24522,7 +24531,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24584,7 +24593,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>123</v>
@@ -24610,13 +24619,13 @@
         <v>77</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24687,13 +24696,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24718,14 +24727,14 @@
         <v>94</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -24794,7 +24803,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>107</v>
@@ -24897,7 +24906,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>109</v>
@@ -25000,13 +25009,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25031,16 +25040,16 @@
         <v>94</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25109,10 +25118,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25212,10 +25221,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25317,10 +25326,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25360,7 +25369,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25422,10 +25431,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25451,13 +25460,13 @@
         <v>116</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -25483,13 +25492,13 @@
         <v>77</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>77</v>
@@ -25527,13 +25536,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -25558,14 +25567,14 @@
         <v>94</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -25634,10 +25643,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25737,10 +25746,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25842,10 +25851,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25885,7 +25894,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -25947,10 +25956,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -25976,10 +25985,10 @@
         <v>87</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -26050,13 +26059,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>77</v>
@@ -26081,14 +26090,14 @@
         <v>94</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>77</v>
@@ -26157,10 +26166,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26260,10 +26269,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26365,10 +26374,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26408,7 +26417,7 @@
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="S231" t="s" s="2">
         <v>77</v>
@@ -26470,10 +26479,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26499,10 +26508,10 @@
         <v>87</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -26573,7 +26582,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>115</v>
@@ -26616,7 +26625,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26678,7 +26687,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>123</v>
@@ -26704,13 +26713,13 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26912,13 +26921,13 @@
         <v>77</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
